--- a/eodTemplate.xlsx
+++ b/eodTemplate.xlsx
@@ -659,7 +659,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="0.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="0.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="9"/>
   </cols>
   <sheetData>
